--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Nrp2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H2">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I2">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J2">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>871.566077078763</v>
+        <v>871.6422253162958</v>
       </c>
       <c r="R2">
-        <v>871.566077078763</v>
+        <v>3486.568901265183</v>
       </c>
       <c r="S2">
-        <v>0.2487711996083486</v>
+        <v>0.2353545376103182</v>
       </c>
       <c r="T2">
-        <v>0.2487711996083486</v>
+        <v>0.1566761172845091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H3">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I3">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J3">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>198.9711038543216</v>
+        <v>213.9326239997706</v>
       </c>
       <c r="R3">
-        <v>198.9711038543216</v>
+        <v>1283.595743998624</v>
       </c>
       <c r="S3">
-        <v>0.05679234368453255</v>
+        <v>0.05776454184852895</v>
       </c>
       <c r="T3">
-        <v>0.05679234368453255</v>
+        <v>0.05768100474355978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H4">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I4">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J4">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>311.4044025619002</v>
+        <v>333.6847170486107</v>
       </c>
       <c r="R4">
-        <v>311.4044025619002</v>
+        <v>2002.108302291664</v>
       </c>
       <c r="S4">
-        <v>0.08888419229015522</v>
+        <v>0.09009913701703429</v>
       </c>
       <c r="T4">
-        <v>0.08888419229015522</v>
+        <v>0.08996883872632232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H5">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I5">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J5">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>179.8058813956033</v>
+        <v>194.4998464584373</v>
       </c>
       <c r="R5">
-        <v>179.8058813956033</v>
+        <v>1166.999078750624</v>
       </c>
       <c r="S5">
-        <v>0.05132201216612793</v>
+        <v>0.05251744362418002</v>
       </c>
       <c r="T5">
-        <v>0.05132201216612793</v>
+        <v>0.0524414946932208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H6">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I6">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J6">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>447.2048257480062</v>
+        <v>453.6827383687946</v>
       </c>
       <c r="R6">
-        <v>447.2048257480062</v>
+        <v>2722.096430212768</v>
       </c>
       <c r="S6">
-        <v>0.1276457217619775</v>
+        <v>0.1225001359609722</v>
       </c>
       <c r="T6">
-        <v>0.1276457217619775</v>
+        <v>0.1223229804536483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.575525882867</v>
+        <v>13.576696</v>
       </c>
       <c r="H7">
-        <v>13.575525882867</v>
+        <v>27.153392</v>
       </c>
       <c r="I7">
-        <v>0.5910818315481577</v>
+        <v>0.578246088424951</v>
       </c>
       <c r="J7">
-        <v>0.5910818315481577</v>
+        <v>0.4924113386768734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>61.89382806810433</v>
+        <v>74.108687014964</v>
       </c>
       <c r="R7">
-        <v>61.89382806810433</v>
+        <v>296.434748059856</v>
       </c>
       <c r="S7">
-        <v>0.01766636203701597</v>
+        <v>0.0200102923639174</v>
       </c>
       <c r="T7">
-        <v>0.01766636203701597</v>
+        <v>0.01332090277561316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H8">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I8">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J8">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>510.6975363957459</v>
+        <v>4.027093942825999</v>
       </c>
       <c r="R8">
-        <v>510.6975363957459</v>
+        <v>24.162563656956</v>
       </c>
       <c r="S8">
-        <v>0.145768453026559</v>
+        <v>0.001087366817828492</v>
       </c>
       <c r="T8">
-        <v>0.145768453026559</v>
+        <v>0.001085794305122702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H9">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I9">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J9">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>116.5878930177331</v>
+        <v>0.9883949506573333</v>
       </c>
       <c r="R9">
-        <v>116.5878930177331</v>
+        <v>8.895554555915998</v>
       </c>
       <c r="S9">
-        <v>0.03327769490873636</v>
+        <v>0.0002668792651754762</v>
       </c>
       <c r="T9">
-        <v>0.03327769490873636</v>
+        <v>0.0003997399702635159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H10">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I10">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J10">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>182.4686221659586</v>
+        <v>1.541664301947333</v>
       </c>
       <c r="R10">
-        <v>182.4686221659586</v>
+        <v>13.874978717526</v>
       </c>
       <c r="S10">
-        <v>0.05208203855208776</v>
+        <v>0.0004162690590207288</v>
       </c>
       <c r="T10">
-        <v>0.05208203855208776</v>
+        <v>0.0006235005974149336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H11">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I11">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J11">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>105.3579562962981</v>
+        <v>0.8986131359906666</v>
       </c>
       <c r="R11">
-        <v>105.3579562962981</v>
+        <v>8.087518223916</v>
       </c>
       <c r="S11">
-        <v>0.03007233285623328</v>
+        <v>0.0002426370280936036</v>
       </c>
       <c r="T11">
-        <v>0.03007233285623328</v>
+        <v>0.000363429202082042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H12">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I12">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J12">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>262.0414088846604</v>
+        <v>2.096069872001333</v>
       </c>
       <c r="R12">
-        <v>262.0414088846604</v>
+        <v>18.864628848012</v>
       </c>
       <c r="S12">
-        <v>0.07479450766807175</v>
+        <v>0.0005659656464494706</v>
       </c>
       <c r="T12">
-        <v>0.07479450766807175</v>
+        <v>0.0008477207494300023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.95463224876102</v>
+        <v>0.062726</v>
       </c>
       <c r="H13">
-        <v>7.95463224876102</v>
+        <v>0.188178</v>
       </c>
       <c r="I13">
-        <v>0.3463467006330607</v>
+        <v>0.002671567820517118</v>
       </c>
       <c r="J13">
-        <v>0.3463467006330607</v>
+        <v>0.00341250113022847</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>36.26692954644018</v>
+        <v>0.342391219609</v>
       </c>
       <c r="R13">
-        <v>36.26692954644018</v>
+        <v>2.054347317654</v>
       </c>
       <c r="S13">
-        <v>0.01035167362137255</v>
+        <v>9.245000394934692E-05</v>
       </c>
       <c r="T13">
-        <v>0.01035167362137255</v>
+        <v>9.23163059152732E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.43709472287111</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H14">
-        <v>1.43709472287111</v>
+        <v>0.170077</v>
       </c>
       <c r="I14">
-        <v>0.06257146781878151</v>
+        <v>0.00241458746617612</v>
       </c>
       <c r="J14">
-        <v>0.06257146781878151</v>
+        <v>0.003084249778007352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>92.26331420310669</v>
+        <v>3.639724391342333</v>
       </c>
       <c r="R14">
-        <v>92.26331420310669</v>
+        <v>21.838346348054</v>
       </c>
       <c r="S14">
-        <v>0.02633472774787061</v>
+        <v>0.0009827720895950454</v>
       </c>
       <c r="T14">
-        <v>0.02633472774787061</v>
+        <v>0.0009813508382082595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.43709472287111</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H15">
-        <v>1.43709472287111</v>
+        <v>0.170077</v>
       </c>
       <c r="I15">
-        <v>0.06257146781878151</v>
+        <v>0.00241458746617612</v>
       </c>
       <c r="J15">
-        <v>0.06257146781878151</v>
+        <v>0.003084249778007352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>21.06292793517165</v>
+        <v>0.8933204095215554</v>
       </c>
       <c r="R15">
-        <v>21.06292793517165</v>
+        <v>8.039883685693999</v>
       </c>
       <c r="S15">
-        <v>0.00601199379771561</v>
+        <v>0.0002412079243229786</v>
       </c>
       <c r="T15">
-        <v>0.00601199379771561</v>
+        <v>0.0003612886465076045</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.43709472287111</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H16">
-        <v>1.43709472287111</v>
+        <v>0.170077</v>
       </c>
       <c r="I16">
-        <v>0.06257146781878151</v>
+        <v>0.00241458746617612</v>
       </c>
       <c r="J16">
-        <v>0.06257146781878151</v>
+        <v>0.003084249778007352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>32.96503041295273</v>
+        <v>1.393370316839889</v>
       </c>
       <c r="R16">
-        <v>32.96503041295273</v>
+        <v>12.540332851559</v>
       </c>
       <c r="S16">
-        <v>0.009409212194722497</v>
+        <v>0.0003762277883231222</v>
       </c>
       <c r="T16">
-        <v>0.009409212194722497</v>
+        <v>0.0005635255508430299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.43709472287111</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H17">
-        <v>1.43709472287111</v>
+        <v>0.170077</v>
       </c>
       <c r="I17">
-        <v>0.06257146781878151</v>
+        <v>0.00241458746617612</v>
       </c>
       <c r="J17">
-        <v>0.06257146781878151</v>
+        <v>0.003084249778007352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>19.03411223434972</v>
+        <v>0.8121747830771111</v>
       </c>
       <c r="R17">
-        <v>19.03411223434972</v>
+        <v>7.309573047693999</v>
       </c>
       <c r="S17">
-        <v>0.005432908712888344</v>
+        <v>0.0002192975684037232</v>
       </c>
       <c r="T17">
-        <v>0.005432908712888344</v>
+        <v>0.00032847064163987</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.43709472287111</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H18">
-        <v>1.43709472287111</v>
+        <v>0.170077</v>
       </c>
       <c r="I18">
-        <v>0.06257146781878151</v>
+        <v>0.00241458746617612</v>
       </c>
       <c r="J18">
-        <v>0.06257146781878151</v>
+        <v>0.003084249778007352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>47.34075870578562</v>
+        <v>1.894447149084222</v>
       </c>
       <c r="R18">
-        <v>47.34075870578562</v>
+        <v>17.050024341758</v>
       </c>
       <c r="S18">
-        <v>0.01351247787555111</v>
+        <v>0.0005115249351740726</v>
       </c>
       <c r="T18">
-        <v>0.01351247787555111</v>
+        <v>0.0007661777779592008</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05669233333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.170077</v>
+      </c>
+      <c r="I19">
+        <v>0.00241458746617612</v>
+      </c>
+      <c r="J19">
+        <v>0.003084249778007352</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.4585215</v>
+      </c>
+      <c r="N19">
+        <v>10.917043</v>
+      </c>
+      <c r="O19">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P19">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q19">
+        <v>0.3094563203851667</v>
+      </c>
+      <c r="R19">
+        <v>1.856737922311</v>
+      </c>
+      <c r="S19">
+        <v>8.355716035717819E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.343632284938686E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H20">
+        <v>24.198317</v>
+      </c>
+      <c r="I20">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J20">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>64.20135099999999</v>
+      </c>
+      <c r="N20">
+        <v>128.402702</v>
+      </c>
+      <c r="O20">
+        <v>0.4070144914449589</v>
+      </c>
+      <c r="P20">
+        <v>0.3181813759721767</v>
+      </c>
+      <c r="Q20">
+        <v>517.8548811087556</v>
+      </c>
+      <c r="R20">
+        <v>3107.129286652533</v>
+      </c>
+      <c r="S20">
+        <v>0.1398274344136674</v>
+      </c>
+      <c r="T20">
+        <v>0.1396252207598863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H21">
+        <v>24.198317</v>
+      </c>
+      <c r="I21">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J21">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.75734066666666</v>
+      </c>
+      <c r="N21">
+        <v>47.27202199999999</v>
+      </c>
+      <c r="O21">
+        <v>0.09989612209201491</v>
+      </c>
+      <c r="P21">
+        <v>0.11713987922892</v>
+      </c>
+      <c r="Q21">
+        <v>127.1003748429971</v>
+      </c>
+      <c r="R21">
+        <v>1143.903373586974</v>
+      </c>
+      <c r="S21">
+        <v>0.03431872514025675</v>
+      </c>
+      <c r="T21">
+        <v>0.05140364186040415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H22">
+        <v>24.198317</v>
+      </c>
+      <c r="I22">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J22">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.57775566666666</v>
+      </c>
+      <c r="N22">
+        <v>73.733267</v>
+      </c>
+      <c r="O22">
+        <v>0.1558145205313015</v>
+      </c>
+      <c r="P22">
+        <v>0.1827107372630203</v>
+      </c>
+      <c r="Q22">
+        <v>198.2467742568488</v>
+      </c>
+      <c r="R22">
+        <v>1784.220968311639</v>
+      </c>
+      <c r="S22">
+        <v>0.05352916200339734</v>
+      </c>
+      <c r="T22">
+        <v>0.08017762493987579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H23">
+        <v>24.198317</v>
+      </c>
+      <c r="I23">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J23">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.32600733333333</v>
+      </c>
+      <c r="N23">
+        <v>42.978022</v>
+      </c>
+      <c r="O23">
+        <v>0.09082196088386706</v>
+      </c>
+      <c r="P23">
+        <v>0.1064993646046676</v>
+      </c>
+      <c r="Q23">
+        <v>115.5550889321082</v>
+      </c>
+      <c r="R23">
+        <v>1039.995800388974</v>
+      </c>
+      <c r="S23">
+        <v>0.03120135043281854</v>
+      </c>
+      <c r="T23">
+        <v>0.04673434216028607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H24">
+        <v>24.198317</v>
+      </c>
+      <c r="I24">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J24">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>33.41628466666666</v>
+      </c>
+      <c r="N24">
+        <v>100.248854</v>
+      </c>
+      <c r="O24">
+        <v>0.2118477555025799</v>
+      </c>
+      <c r="P24">
+        <v>0.2484162545532246</v>
+      </c>
+      <c r="Q24">
+        <v>269.5392831087464</v>
+      </c>
+      <c r="R24">
+        <v>2425.853547978718</v>
+      </c>
+      <c r="S24">
+        <v>0.07277905028161748</v>
+      </c>
+      <c r="T24">
+        <v>0.1090106995620358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.066105666666667</v>
+      </c>
+      <c r="H25">
+        <v>24.198317</v>
+      </c>
+      <c r="I25">
+        <v>0.3435441178451908</v>
+      </c>
+      <c r="J25">
+        <v>0.4388227322648067</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.4585215</v>
+      </c>
+      <c r="N25">
+        <v>10.917043</v>
+      </c>
+      <c r="O25">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P25">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q25">
+        <v>44.02901120277183</v>
+      </c>
+      <c r="R25">
+        <v>264.174067216631</v>
+      </c>
+      <c r="S25">
+        <v>0.01188839557343339</v>
+      </c>
+      <c r="T25">
+        <v>0.01187120298231864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.716877</v>
+      </c>
+      <c r="H26">
+        <v>3.433754</v>
+      </c>
+      <c r="I26">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J26">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.20135099999999</v>
+      </c>
+      <c r="N26">
+        <v>128.402702</v>
+      </c>
+      <c r="O26">
+        <v>0.4070144914449589</v>
+      </c>
+      <c r="P26">
+        <v>0.3181813759721767</v>
+      </c>
+      <c r="Q26">
+        <v>110.225822900827</v>
+      </c>
+      <c r="R26">
+        <v>440.9032916033079</v>
+      </c>
+      <c r="S26">
+        <v>0.02976238051354985</v>
+      </c>
+      <c r="T26">
+        <v>0.01981289278445036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.716877</v>
+      </c>
+      <c r="H27">
+        <v>3.433754</v>
+      </c>
+      <c r="I27">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J27">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.75734066666666</v>
+      </c>
+      <c r="N27">
+        <v>47.27202199999999</v>
+      </c>
+      <c r="O27">
+        <v>0.09989612209201491</v>
+      </c>
+      <c r="P27">
+        <v>0.11713987922892</v>
+      </c>
+      <c r="Q27">
+        <v>27.05341577176466</v>
+      </c>
+      <c r="R27">
+        <v>162.320494630588</v>
+      </c>
+      <c r="S27">
+        <v>0.007304767913730766</v>
+      </c>
+      <c r="T27">
+        <v>0.007294204008184957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.716877</v>
+      </c>
+      <c r="H28">
+        <v>3.433754</v>
+      </c>
+      <c r="I28">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J28">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.57775566666666</v>
+      </c>
+      <c r="N28">
+        <v>73.733267</v>
+      </c>
+      <c r="O28">
+        <v>0.1558145205313015</v>
+      </c>
+      <c r="P28">
+        <v>0.1827107372630203</v>
+      </c>
+      <c r="Q28">
+        <v>42.19698341571966</v>
+      </c>
+      <c r="R28">
+        <v>253.181900494318</v>
+      </c>
+      <c r="S28">
+        <v>0.011393724663526</v>
+      </c>
+      <c r="T28">
+        <v>0.01137724744856422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.43709472287111</v>
-      </c>
-      <c r="H19">
-        <v>1.43709472287111</v>
-      </c>
-      <c r="I19">
-        <v>0.06257146781878151</v>
-      </c>
-      <c r="J19">
-        <v>0.06257146781878151</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="N19">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="O19">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="P19">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="Q19">
-        <v>6.552033008696959</v>
-      </c>
-      <c r="R19">
-        <v>6.552033008696959</v>
-      </c>
-      <c r="S19">
-        <v>0.001870147490033325</v>
-      </c>
-      <c r="T19">
-        <v>0.001870147490033325</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.716877</v>
+      </c>
+      <c r="H29">
+        <v>3.433754</v>
+      </c>
+      <c r="I29">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J29">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>14.32600733333333</v>
+      </c>
+      <c r="N29">
+        <v>42.978022</v>
+      </c>
+      <c r="O29">
+        <v>0.09082196088386706</v>
+      </c>
+      <c r="P29">
+        <v>0.1064993646046676</v>
+      </c>
+      <c r="Q29">
+        <v>24.59599249243133</v>
+      </c>
+      <c r="R29">
+        <v>147.575954954588</v>
+      </c>
+      <c r="S29">
+        <v>0.006641232230371169</v>
+      </c>
+      <c r="T29">
+        <v>0.006631627907438808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.716877</v>
+      </c>
+      <c r="H30">
+        <v>3.433754</v>
+      </c>
+      <c r="I30">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J30">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.41628466666666</v>
+      </c>
+      <c r="N30">
+        <v>100.248854</v>
+      </c>
+      <c r="O30">
+        <v>0.2118477555025799</v>
+      </c>
+      <c r="P30">
+        <v>0.2484162545532246</v>
+      </c>
+      <c r="Q30">
+        <v>57.37165056965266</v>
+      </c>
+      <c r="R30">
+        <v>344.229903417916</v>
+      </c>
+      <c r="S30">
+        <v>0.01549107867836667</v>
+      </c>
+      <c r="T30">
+        <v>0.01546867601015139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.716877</v>
+      </c>
+      <c r="H31">
+        <v>3.433754</v>
+      </c>
+      <c r="I31">
+        <v>0.073123638443165</v>
+      </c>
+      <c r="J31">
+        <v>0.06226917815008411</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.4585215</v>
+      </c>
+      <c r="N31">
+        <v>10.917043</v>
+      </c>
+      <c r="O31">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P31">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q31">
+        <v>9.371610017355499</v>
+      </c>
+      <c r="R31">
+        <v>37.486440069422</v>
+      </c>
+      <c r="S31">
+        <v>0.002530454443620554</v>
+      </c>
+      <c r="T31">
+        <v>0.001684529991294376</v>
       </c>
     </row>
   </sheetData>
